--- a/resources/coffee_machine/all_modules/merged_io.xlsx
+++ b/resources/coffee_machine/all_modules/merged_io.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="88">
   <si>
     <t xml:space="preserve">System Parameters</t>
   </si>
@@ -256,7 +256,10 @@
     <t xml:space="preserve">Data</t>
   </si>
   <si>
-    <t xml:space="preserve">V_0</t>
+    <t xml:space="preserve">S_Steady, V_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_Steady</t>
   </si>
   <si>
     <t xml:space="preserve">R_0-5</t>
@@ -395,10 +398,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1014,35 +1017,36 @@
       <c r="B62" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>78</v>
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>79</v>
@@ -1050,141 +1054,149 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/resources/coffee_machine/all_modules/merged_io.xlsx
+++ b/resources/coffee_machine/all_modules/merged_io.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="86">
   <si>
     <t xml:space="preserve">System Parameters</t>
   </si>
@@ -178,12 +178,12 @@
   </si>
   <si>
     <t xml:space="preserve">CONTROLLER
-DISPATCHER
+INPUT
 POS
 PRODUCER</t>
   </si>
   <si>
-    <t xml:space="preserve">DISPATCHER</t>
+    <t xml:space="preserve">INPUT</t>
   </si>
   <si>
     <t xml:space="preserve">T_Inc_Sugar</t>
@@ -238,13 +238,6 @@
   </si>
   <si>
     <t xml:space="preserve">S_Send, V_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INPUT
-DISPATCHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INPUT</t>
   </si>
   <si>
     <t xml:space="preserve">T_Send</t>
@@ -400,8 +393,8 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D62" activeCellId="0" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -960,7 +953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -971,10 +964,10 @@
         <v>69</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,7 +975,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,52 +983,52 @@
         <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>37</v>
@@ -1046,23 +1039,23 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>6</v>
@@ -1079,7 +1072,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>29</v>
@@ -1087,7 +1080,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>30</v>
@@ -1095,7 +1088,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>31</v>
@@ -1103,7 +1096,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>32</v>
@@ -1111,15 +1104,15 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>6</v>
@@ -1136,7 +1129,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>29</v>
@@ -1144,7 +1137,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>30</v>
@@ -1152,7 +1145,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>31</v>
@@ -1160,7 +1153,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>32</v>
@@ -1168,21 +1161,21 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>37</v>
@@ -1193,10 +1186,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/resources/coffee_machine/all_modules/merged_io.xlsx
+++ b/resources/coffee_machine/all_modules/merged_io.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="73">
   <si>
     <t xml:space="preserve">System Parameters</t>
   </si>
@@ -48,7 +48,8 @@
   <si>
     <t xml:space="preserve">CONTROLLER
 POS
-PRODUCER</t>
+PRODUCER
+USER</t>
   </si>
   <si>
     <t xml:space="preserve">CONTROLLER</t>
@@ -63,6 +64,9 @@
     <t xml:space="preserve">S_Produce</t>
   </si>
   <si>
+    <t xml:space="preserve">S_Take</t>
+  </si>
+  <si>
     <t xml:space="preserve">S_Another</t>
   </si>
   <si>
@@ -72,10 +76,6 @@
     <t xml:space="preserve">S_Latte</t>
   </si>
   <si>
-    <t xml:space="preserve">CONTROLLER
-OUTPUT</t>
-  </si>
-  <si>
     <t xml:space="preserve">S_Americano</t>
   </si>
   <si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">Producer_State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_Take</t>
   </si>
   <si>
     <t xml:space="preserve">CONTROLLER
@@ -178,12 +175,11 @@
   </si>
   <si>
     <t xml:space="preserve">CONTROLLER
-INPUT
-POS
+USER
 PRODUCER</t>
   </si>
   <si>
-    <t xml:space="preserve">INPUT</t>
+    <t xml:space="preserve">USER</t>
   </si>
   <si>
     <t xml:space="preserve">T_Inc_Sugar</t>
@@ -216,46 +212,10 @@
     <t xml:space="preserve">T_Select_Mocha</t>
   </si>
   <si>
-    <t xml:space="preserve">T_POS_Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_POS_Failed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_Produce_Ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_Produce_Cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_Another_Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_Another_No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_Send, V_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_Send</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_0-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_Steady, V_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_Steady</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_0-5</t>
+    <t xml:space="preserve">T_OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_Cancel</t>
   </si>
   <si>
     <t xml:space="preserve">Door_Lock</t>
@@ -391,10 +351,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D62" activeCellId="0" sqref="D62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -424,7 +384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -481,78 +441,78 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,7 +520,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,32 +528,32 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,7 +561,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,32 +569,32 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,7 +602,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,24 +610,15 @@
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,7 +626,16 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,7 +643,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,7 +651,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,32 +667,32 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,7 +700,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,450 +708,373 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" s="2"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
